--- a/docs/source/recursos/forestal/tabla_cat_fv_for_mad_socio_tenencia_tierra_v2.xlsx
+++ b/docs/source/recursos/forestal/tabla_cat_fv_for_mad_socio_tenencia_tierra_v2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\forestal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0DE617-E606-43B2-9221-3937BCC88DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797C9736-85D0-44CC-A830-B9641B65B00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_cat_fv_for_mad_socio_tene" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">Máxima </t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -61,13 +58,19 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>0.8</t>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -902,10 +905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -925,44 +930,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
